--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12831F5-AB45-4BC2-B9C1-B9709512EE82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Build Version</t>
   </si>
@@ -44,11 +43,21 @@
 - UI functional but unintuative and not beginner friendly
 - Gamemodes don't have proper descriptions that explain game rules</t>
   </si>
+  <si>
+    <t>V1.17</t>
+  </si>
+  <si>
+    <t>- Aesthetic UI improvements
+- Models for each gamemode (don't reuse chess models for checkers)</t>
+  </si>
+  <si>
+    <t>- These are aesthetic suggestions so they are a low priority and will be sorted later</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,9 +87,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -355,40 +367,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -396,6 +409,17 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084D56F-ACBF-4E93-AF30-E26464ACD872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -48,16 +49,18 @@
   </si>
   <si>
     <t>- Aesthetic UI improvements
-- Models for each gamemode (don't reuse chess models for checkers)</t>
-  </si>
-  <si>
-    <t>- These are aesthetic suggestions so they are a low priority and will be sorted later</t>
+- Models for each gamemode (don't reuse chess models for checkers)
+- Error when quitting to menu, have to restart game to play again</t>
+  </si>
+  <si>
+    <t>- These are aesthetic suggestions so they are a low priority and will be sorted later
+- This is a know bug and will be fixed in the next version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,18 +370,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084D56F-ACBF-4E93-AF30-E26464ACD872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5562821-62DB-4EF4-B317-19B70E1BBD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Build Version</t>
   </si>
@@ -55,6 +55,33 @@
   <si>
     <t>- These are aesthetic suggestions so they are a low priority and will be sorted later
 - This is a know bug and will be fixed in the next version</t>
+  </si>
+  <si>
+    <t>V1.24</t>
+  </si>
+  <si>
+    <t>- Game generally works well
+- Viking chess didn't implement all game rules
+- Adding sound for piece movements</t>
+  </si>
+  <si>
+    <t>- Viking chess has been correctly implemented as of V1.25
+- Sounds will added soon</t>
+  </si>
+  <si>
+    <t>V1.25</t>
+  </si>
+  <si>
+    <t>-Unintuative UI
+- Viking chess AI doesn't work
+- Normal chess AI sometimes freezes
+- Sometimes players appear twice in lobbies</t>
+  </si>
+  <si>
+    <t>- UI will be overhalled
+- Viking chess AI has already been fixed as of V1.27
+- Normal chess AI will be looked at
+- Duplicate player bug will be looked at</t>
   </si>
 </sst>
 </file>
@@ -378,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -425,6 +452,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5562821-62DB-4EF4-B317-19B70E1BBD7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93313CF2-48C4-4FF6-9FB3-B9050EFDD889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -72,16 +72,17 @@
     <t>V1.25</t>
   </si>
   <si>
-    <t>-Unintuative UI
-- Viking chess AI doesn't work
-- Normal chess AI sometimes freezes
-- Sometimes players appear twice in lobbies</t>
-  </si>
-  <si>
     <t>- UI will be overhalled
 - Viking chess AI has already been fixed as of V1.27
 - Normal chess AI will be looked at
 - Duplicate player bug will be looked at</t>
+  </si>
+  <si>
+    <t>-Unintuative UI
+- Viking chess AI doesn't work
+- Normal chess AI sometimes freezes
+- Sometimes players appear twice in lobbies
+- AI sometimes doesn't pick best move</t>
   </si>
 </sst>
 </file>
@@ -407,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -468,10 +469,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93313CF2-48C4-4FF6-9FB3-B9050EFDD889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C0095-2F5C-4D25-A784-1C5A9E0E4932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Build Version</t>
   </si>
@@ -83,6 +83,14 @@
 - Normal chess AI sometimes freezes
 - Sometimes players appear twice in lobbies
 - AI sometimes doesn't pick best move</t>
+  </si>
+  <si>
+    <t>V1.34</t>
+  </si>
+  <si>
+    <t>- No colour sheme / boring colours
+- No dividers between buttons
+- Make errors display in a nicer way</t>
   </si>
 </sst>
 </file>
@@ -406,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -475,6 +483,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C0095-2F5C-4D25-A784-1C5A9E0E4932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5810E53E-540E-4125-A171-F8BAC8D15C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Build Version</t>
   </si>
@@ -90,7 +90,12 @@
   <si>
     <t>- No colour sheme / boring colours
 - No dividers between buttons
-- Make errors display in a nicer way</t>
+- Make errors display in a nicer way
+- Online multiplayer (through public IP not working)</t>
+  </si>
+  <si>
+    <t>- Online multiplayer fixed as of version V1.35
+- UI feedback is mixed therefore it will keep its current theme as it is functional, a low priority, and liked by a majority of people</t>
   </si>
 </sst>
 </file>
@@ -490,6 +495,9 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5810E53E-540E-4125-A171-F8BAC8D15C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876DD8F5-39D7-4F5B-8AB0-52B366C35658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Build Version</t>
   </si>
@@ -96,6 +96,33 @@
   <si>
     <t>- Online multiplayer fixed as of version V1.35
 - UI feedback is mixed therefore it will keep its current theme as it is functional, a low priority, and liked by a majority of people</t>
+  </si>
+  <si>
+    <t>V1.57</t>
+  </si>
+  <si>
+    <t>V1.6 Final</t>
+  </si>
+  <si>
+    <t>- Make miniturised help show up when switching gamemodes, not just when pressing help 
+- If no saves available show message explaining that
+- Mouse inputs go through escape menu in 3D mode
+- Viking chess has 2 pieces missing
+- Atomic Chess AI doesn't recognise atomic moves
+- More example images in help pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Point tracker
+- Go back to lobby
+- Good way of combining gamemodes
+- 3D mode looks good</t>
+  </si>
+  <si>
+    <t>- Will implement miniturised help showing as switching through gamemodes
+- Will implement message showing no saves available
+- Will prevent 3D mouse inputs from working while escape menu is showing
+- Will add 2 pieces to Viking Chess
+- Will look into Atomic Chess</t>
   </si>
 </sst>
 </file>
@@ -419,17 +446,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -444,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -488,7 +515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -497,6 +524,25 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876DD8F5-39D7-4F5B-8AB0-52B366C35658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAFE7E4-972A-4972-958F-B7A2CF2D180C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Build Version</t>
   </si>
@@ -112,17 +112,24 @@
 - More example images in help pages</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Point tracker
-- Go back to lobby
-- Good way of combining gamemodes
-- 3D mode looks good</t>
-  </si>
-  <si>
     <t>- Will implement miniturised help showing as switching through gamemodes
 - Will implement message showing no saves available
 - Will prevent 3D mouse inputs from working while escape menu is showing
 - Will add 2 pieces to Viking Chess
 - Will look into Atomic Chess</t>
+  </si>
+  <si>
+    <t>V1.57 (Second tester)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Point tracker
+- Go back to lobby
+- Good way of combining gamemodes
+- 3D mode looks good
+- Stable</t>
+  </si>
+  <si>
+    <t>- Centre 3D camera rotation</t>
   </si>
 </sst>
 </file>
@@ -446,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -534,15 +541,23 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAFE7E4-972A-4972-958F-B7A2CF2D180C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DD905-DC3F-4935-A9C0-F6C196AE51BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Build Version</t>
   </si>
@@ -129,7 +129,14 @@
 - Stable</t>
   </si>
   <si>
-    <t>- Centre 3D camera rotation</t>
+    <t>- Centre 3D camera rotation
+- Pieces don’t make last winning move
+- 3D squares sometimes dissapear</t>
+  </si>
+  <si>
+    <t>- Camera has been centred as of V1.58
+- Piece movement has been fixed as of V1.58
+- Squares fixed as of V1.58</t>
   </si>
 </sst>
 </file>
@@ -455,8 +462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -551,8 +559,11 @@
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DD905-DC3F-4935-A9C0-F6C196AE51BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF4F928-517C-4946-9298-39717E41C534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Build Version</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>V1.57</t>
-  </si>
-  <si>
-    <t>V1.6 Final</t>
   </si>
   <si>
     <t>- Make miniturised help show up when switching gamemodes, not just when pressing help 
@@ -122,13 +119,6 @@
     <t>V1.57 (Second tester)</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Point tracker
-- Go back to lobby
-- Good way of combining gamemodes
-- 3D mode looks good
-- Stable</t>
-  </si>
-  <si>
     <t>- Centre 3D camera rotation
 - Pieces don’t make last winning move
 - 3D squares sometimes dissapear</t>
@@ -137,6 +127,64 @@
     <t>- Camera has been centred as of V1.58
 - Piece movement has been fixed as of V1.58
 - Squares fixed as of V1.58</t>
+  </si>
+  <si>
+    <t>- Addressed in main document</t>
+  </si>
+  <si>
+    <t>- Looks good
+- Stable
+- Wide variety of gamemodes
+- Hosting system difficult (due to port forwarding)
+- UI is functional but could be more visually interesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - No team point tracker
+- No way to return to lobby after match
+- Good way of combining gamemodes
+- 3D mode looks good
+- Stable
+- AI presents fun challenge</t>
+  </si>
+  <si>
+    <t>- Help system good with useful images
+- Looks good other than control hints which look a bit out of place
+- UI is functional
+- Good variety of gamemodes
+- AI is a good addition for playing alone</t>
+  </si>
+  <si>
+    <t>- Good sound design
+- Pieces recognisable
+- Board isn't rotated based on which side you're playing
+- Checkers queen difficult to recognise in 3D
+- Good animations for piece movements in 2D
+- Great 3D animations for selecting, moving and taking pieces</t>
+  </si>
+  <si>
+    <t>V1.6 Final - Older Teenager</t>
+  </si>
+  <si>
+    <t>V1.6 Final (Second Tester) - Older Teenager</t>
+  </si>
+  <si>
+    <t>V1.6 Final (Third Tester) - Older Teenager</t>
+  </si>
+  <si>
+    <t>V1.6 Final (Fourth Tester) - Adult</t>
+  </si>
+  <si>
+    <t>V1.6 Final (Fifth Tester) - Under 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - UI understandable
+- Understood how to start a game with a small amount of trial and error
+- Understood how to use in-game controls from previous experience playing chess games and from in-game control hints
+- Thought 3D mode looked great
+- Didn't know that 'AI' meant playing against a computer but said that they would have understood if it was 'CPU' as previous games played have used this to represent a computer</t>
+  </si>
+  <si>
+    <t>V1.6 Final (Sixth Tester) - Adult</t>
   </si>
 </sst>
 </file>
@@ -460,11 +508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -546,29 +594,81 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF4F928-517C-4946-9298-39717E41C534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1D9070-18F8-4BEF-A2B5-F13B4F311CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Build Version</t>
   </si>
@@ -182,9 +182,6 @@
 - Understood how to use in-game controls from previous experience playing chess games and from in-game control hints
 - Thought 3D mode looked great
 - Didn't know that 'AI' meant playing against a computer but said that they would have understood if it was 'CPU' as previous games played have used this to represent a computer</t>
-  </si>
-  <si>
-    <t>V1.6 Final (Sixth Tester) - Adult</t>
   </si>
 </sst>
 </file>
@@ -508,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -666,11 +663,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
